--- a/medicine/Mort/Liste_des_monuments_aux_morts_en_Ardèche/Liste_des_monuments_aux_morts_en_Ardèche.xlsx
+++ b/medicine/Mort/Liste_des_monuments_aux_morts_en_Ardèche/Liste_des_monuments_aux_morts_en_Ardèche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_monuments_aux_morts_en_Ard%C3%A8che</t>
+          <t>Liste_des_monuments_aux_morts_en_Ardèche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1920 à 1925, il se construit en moyenne 16 monuments par jour dans tout le pays, soldats, victoires, stèles ou simples plaques apposées dans les églises. Dans le département de l'Ardèche chaque commune a son monument s'incluant dans une catégorie de forme, statuaire et ornements que nous retrouvons sur l'ensemble des monuments français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_monuments_aux_morts_en_Ard%C3%A8che</t>
+          <t>Liste_des_monuments_aux_morts_en_Ardèche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Formes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le monument le plus répandu dans l'Ardèche est l'obélisque que l'on nomme aussi pyramide. Cette forme venue d'Égypte est chargée de symbole. C'est sur une pierre levée que le soleil se serait posé au premier matin du monde. La forme allongée de l'obélisque, phallique, invite à y voir un symbole de fertilité, mais sa verticalité représente aussi l'essor de l'âme vers le ciel après la mort. C'est pourquoi l'obélisque a été très utilisé dans l'art funéraire. Mais il faut bien comprendre, qu'après la guerre, c'est surtout son prix modique qui l'a fait choisir par la plupart des communes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le monument le plus répandu dans l'Ardèche est l'obélisque que l'on nomme aussi pyramide. Cette forme venue d'Égypte est chargée de symbole. C'est sur une pierre levée que le soleil se serait posé au premier matin du monde. La forme allongée de l'obélisque, phallique, invite à y voir un symbole de fertilité, mais sa verticalité représente aussi l'essor de l'âme vers le ciel après la mort. C'est pourquoi l'obélisque a été très utilisé dans l'art funéraire. Mais il faut bien comprendre, qu'après la guerre, c'est surtout son prix modique qui l'a fait choisir par la plupart des communes.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_monuments_aux_morts_en_Ard%C3%A8che</t>
+          <t>Liste_des_monuments_aux_morts_en_Ardèche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Statuaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les formes de base que sont l'obélisque, la stèle, la colonne, se combinent à d'autres éléments figuratifs, réalistes ou allégoriques : bustes ou statues de soldats.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_monuments_aux_morts_en_Ard%C3%A8che</t>
+          <t>Liste_des_monuments_aux_morts_en_Ardèche</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Épigraphie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La dédicace qu'on peut lire sur les monuments aux morts, comme les ornements qui y sont apposés mettent en évidence la destination du monument et sa signification.
 "La commune de...à ses glorieux enfants morts pour la France", telle est la formule officielle, consacrée, avec ses variantes "À la mémoire des enfants de...morts pour la France" ou "À ses enfants (ou à ses fils) la commune reconnaissante".
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_monuments_aux_morts_en_Ard%C3%A8che</t>
+          <t>Liste_des_monuments_aux_morts_en_Ardèche</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Ornements militaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En symboles militaires, la croix de guerre orne la plupart des monuments. Drapeaux, épées, casques, fusils sont des motifs récurrents. Les monuments les plus simples s'ornent également de profils de soldats gravés dans la pierre ou en métal apposés sur le fût. Autour du monument peuvent se dresser des obus.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_monuments_aux_morts_en_Ard%C3%A8che</t>
+          <t>Liste_des_monuments_aux_morts_en_Ardèche</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Symboles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les éléments végétaux qui figurent sur les monuments sont, eux aussi, chargés de sens :
 La couronne de laurier récompense les vainqueurs.
@@ -654,7 +676,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_monuments_aux_morts_en_Ard%C3%A8che</t>
+          <t>Liste_des_monuments_aux_morts_en_Ardèche</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -672,9 +694,11 @@
           <t>Signes de la victoire</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le coq est un emblème très ancien. Il est devenu celui de la France sans doute par assimilation de gallus, le coq en latin et de Gallus, gaulois. Sur les monuments aux morts, il symbolise la pugnacité du combattant et, bec ouvert, il fait résonner le chant de la victoire. Crête arrogante, ailes serrées ou déployées, il se dresse avec fierté, crispant ses ergots sur une sphère ou sur un casque[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le coq est un emblème très ancien. Il est devenu celui de la France sans doute par assimilation de gallus, le coq en latin et de Gallus, gaulois. Sur les monuments aux morts, il symbolise la pugnacité du combattant et, bec ouvert, il fait résonner le chant de la victoire. Crête arrogante, ailes serrées ou déployées, il se dresse avec fierté, crispant ses ergots sur une sphère ou sur un casque.
 Le Poilu qui personnifie le soldat inconnu, est un emblème patriotique et victorieux. Largement représenté, il est réaliste par la précision des détails de ses vêtements et de son équipement : la capote retroussée sur les côtés, les jambières, le casque, la gourde, les musettes et autres sont minutieusement représentées. Idéalisé par son attitude et son expression, il figure le soldat prêt à tout pour sauver son pays.
 </t>
         </is>
@@ -686,7 +710,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_monuments_aux_morts_en_Ard%C3%A8che</t>
+          <t>Liste_des_monuments_aux_morts_en_Ardèche</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -706,12 +730,53 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monuments surmontés d'un coq
+          <t>Monuments surmontés d'un coq</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Bourg-Saint-Andéol
 			Rosières
 			Ruoms
-Monuments surmontés d'une croix latine
-La croix latine elle est le symbole de l'Église. Or la loi du 9 décembre 1905, dans son article 28, "interdit d'apposer un signe ou emblème religieux sur les monuments publics... à l'exception... des terrains de sépulture dans les cimetières, des monuments funéraires...". Le Monument aux morts de Saint-André-Lachamp, par exemple, était peut-être dans un terrain de sépulture en 1925.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_monuments_aux_morts_en_Ardèche</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_monuments_aux_morts_en_Ard%C3%A8che</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des monuments aux morts</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Monuments surmontés d'une croix latine</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La croix latine elle est le symbole de l'Église. Or la loi du 9 décembre 1905, dans son article 28, "interdit d'apposer un signe ou emblème religieux sur les monuments publics... à l'exception... des terrains de sépulture dans les cimetières, des monuments funéraires...". Le Monument aux morts de Saint-André-Lachamp, par exemple, était peut-être dans un terrain de sépulture en 1925.
 			Balazuc
 			Casteljau (Berrias-et-Casteljau)
 			Chauzon
@@ -721,7 +786,43 @@
 			Prunet
 			Saint-André-Lachamp
 			Saint-Jean de pourcharesse (Saint-Pierre-Saint-Jean)
-Monuments surmontés d'une croix de guerre
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_monuments_aux_morts_en_Ardèche</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_monuments_aux_morts_en_Ard%C3%A8che</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des monuments aux morts</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Monuments surmontés d'une croix de guerre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Beaumont
 			Bessas
 			Chambonas
@@ -741,7 +842,43 @@
 			Uzer
 			Vallon-Pont-d'Arc
 			Vernon
-Monuments avec une croix de guerre sculptée
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_monuments_aux_morts_en_Ardèche</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_monuments_aux_morts_en_Ard%C3%A8che</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des monuments aux morts</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Monuments avec une croix de guerre sculptée</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Les Assions
 			Auriolles(Saint-Alban-Auriolles)
 			Banne
@@ -761,36 +898,324 @@
 			Salavas
 			Sampzon
 			Valgorge
-Monuments surmontés d'un Poilu
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_monuments_aux_morts_en_Ardèche</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_monuments_aux_morts_en_Ard%C3%A8che</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des monuments aux morts</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Monuments surmontés d'un Poilu</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Le Poilu victorieux à Issarlès.
 			Poilu au repos à Lablachère.
 			Poilu au repos à Largentière.
 			Poilu mourant aux Vans.
-Monuments avec poilu sculpté
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_monuments_aux_morts_en_Ardèche</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_monuments_aux_morts_en_Ard%C3%A8che</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des monuments aux morts</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Monuments avec poilu sculpté</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Beaulieu
 			Thines(Malarce-sur-la-Thines
 			Ribes
-Monuments surmontés d'une urne
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_monuments_aux_morts_en_Ardèche</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_monuments_aux_morts_en_Ard%C3%A8che</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des monuments aux morts</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Monuments surmontés d'une urne</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Saint-Just-d'Ardèche
 			Saint-Marcel-d'Ardèche
 			Vagnas
 			Vinezac
-Monuments avec palmes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_monuments_aux_morts_en_Ardèche</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_monuments_aux_morts_en_Ard%C3%A8che</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des monuments aux morts</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Monuments avec palmes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Lagorce
 			Sanilhac
-Monuments d'inspiration pacifiste
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_monuments_aux_morts_en_Ardèche</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_monuments_aux_morts_en_Ard%C3%A8che</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des monuments aux morts</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Monuments d'inspiration pacifiste</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			 Joyeuse 
-Obélisque simples
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_monuments_aux_morts_en_Ardèche</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_monuments_aux_morts_en_Ard%C3%A8che</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des monuments aux morts</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Obélisque simples</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Malarce-sur-la-Thines
 			Rocher
-Plaques commémoratives
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_monuments_aux_morts_en_Ardèche</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_monuments_aux_morts_en_Ard%C3%A8che</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste des monuments aux morts</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Plaques commémoratives</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Laboule
 			Les Salelles
 			Naves (Les Vans)
 			Tauriers
 			Église de Saint-Andéol-de-Berg
 			Mairie de Saint-Andéol-de-Berg
-Stèles
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_monuments_aux_morts_en_Ardèche</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_monuments_aux_morts_en_Ard%C3%A8che</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste des monuments aux morts</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Stèles</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Saint-Sauveur-de-Cruzières
 </t>
         </is>
